--- a/TA buku/Results/FOOD.xlsx
+++ b/TA buku/Results/FOOD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="401">
   <si>
     <t>id</t>
   </si>
@@ -670,7 +670,7 @@
     <t>interesting</t>
   </si>
   <si>
-    <t>well</t>
+    <t>worth</t>
   </si>
   <si>
     <t>worth|worth</t>
@@ -682,7 +682,7 @@
     <t>great</t>
   </si>
   <si>
-    <t>overpriced</t>
+    <t>soggy</t>
   </si>
   <si>
     <t>great|price</t>
@@ -718,13 +718,10 @@
     <t>exceptional</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>nasty|small</t>
   </si>
   <si>
-    <t>like</t>
+    <t>-|-|-</t>
   </si>
   <si>
     <t>delight|delight|bargain</t>
@@ -769,6 +766,9 @@
     <t>good|good</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>trendy|trendy</t>
   </si>
   <si>
@@ -802,52 +802,55 @@
     <t>fresh|good|great|kimchi|salad</t>
   </si>
   <si>
+    <t>fishy|fishy|fishy|fishy|fishy|fishy</t>
+  </si>
+  <si>
+    <t>hot|hot|dog</t>
+  </si>
+  <si>
+    <t>stale</t>
+  </si>
+  <si>
+    <t>lousy|tiny</t>
+  </si>
+  <si>
+    <t>consistently</t>
+  </si>
+  <si>
+    <t>amazing|amazing</t>
+  </si>
+  <si>
+    <t>greasy|greasy|dry|loud|greasy</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>only|chicken</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>good|awesome|good|tempura|awesome</t>
+  </si>
+  <si>
+    <t>heavenly|heavenly|heavenly|heavenly|heavenly|heavenly|heavenly</t>
+  </si>
+  <si>
+    <t>prepared</t>
+  </si>
+  <si>
+    <t>dissapointing|dissapointing|dissapointing</t>
+  </si>
+  <si>
     <t>bland</t>
   </si>
   <si>
-    <t>hot|hot|dog</t>
-  </si>
-  <si>
-    <t>stale</t>
-  </si>
-  <si>
-    <t>lousy|tiny</t>
-  </si>
-  <si>
-    <t>consistently</t>
-  </si>
-  <si>
-    <t>amazing|amazing</t>
-  </si>
-  <si>
-    <t>greasy|greasy|dry|loud|greasy</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>only|chicken</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>good|awesome|good|tempura|awesome</t>
-  </si>
-  <si>
-    <t>heavenly</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>prepared</t>
-  </si>
-  <si>
     <t>incredible|incredible|incredible</t>
   </si>
   <si>
-    <t>cold</t>
+    <t>cold|cold</t>
   </si>
   <si>
     <t>fancy|good</t>
@@ -1608,10 +1611,10 @@
         <v>217</v>
       </c>
       <c r="E2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1628,10 +1631,10 @@
         <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1648,10 +1651,10 @@
         <v>219</v>
       </c>
       <c r="E4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1668,10 +1671,10 @@
         <v>220</v>
       </c>
       <c r="E5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1688,10 +1691,10 @@
         <v>221</v>
       </c>
       <c r="E6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1708,10 +1711,10 @@
         <v>222</v>
       </c>
       <c r="E7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1728,10 +1731,10 @@
         <v>223</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1748,10 +1751,10 @@
         <v>224</v>
       </c>
       <c r="E9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1768,10 +1771,10 @@
         <v>225</v>
       </c>
       <c r="E10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1788,10 +1791,10 @@
         <v>226</v>
       </c>
       <c r="E11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1808,10 +1811,10 @@
         <v>227</v>
       </c>
       <c r="E12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1828,10 +1831,10 @@
         <v>228</v>
       </c>
       <c r="E13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1848,10 +1851,10 @@
         <v>229</v>
       </c>
       <c r="E14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1868,10 +1871,10 @@
         <v>221</v>
       </c>
       <c r="E15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1888,10 +1891,10 @@
         <v>230</v>
       </c>
       <c r="E16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1908,10 +1911,10 @@
         <v>231</v>
       </c>
       <c r="E17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1928,10 +1931,10 @@
         <v>232</v>
       </c>
       <c r="E18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1948,10 +1951,10 @@
         <v>233</v>
       </c>
       <c r="E19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1965,13 +1968,13 @@
         <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F20" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1988,10 +1991,10 @@
         <v>230</v>
       </c>
       <c r="E21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2005,13 +2008,13 @@
         <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F22" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2025,13 +2028,13 @@
         <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E23" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F23" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2048,10 +2051,10 @@
         <v>227</v>
       </c>
       <c r="E24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F24" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2065,13 +2068,13 @@
         <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F25" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2085,13 +2088,13 @@
         <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2108,10 +2111,10 @@
         <v>227</v>
       </c>
       <c r="E27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F27" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2125,13 +2128,13 @@
         <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F28" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2148,10 +2151,10 @@
         <v>221</v>
       </c>
       <c r="E29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F29" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2165,13 +2168,13 @@
         <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E30" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F30" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2185,13 +2188,13 @@
         <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2205,13 +2208,13 @@
         <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E32" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F32" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2225,13 +2228,13 @@
         <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E33" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F33" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2248,10 +2251,10 @@
         <v>221</v>
       </c>
       <c r="E34" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F34" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2265,13 +2268,13 @@
         <v>144</v>
       </c>
       <c r="D35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E35" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F35" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2285,13 +2288,13 @@
         <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E36" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F36" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2308,10 +2311,10 @@
         <v>221</v>
       </c>
       <c r="E37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F37" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2328,10 +2331,10 @@
         <v>221</v>
       </c>
       <c r="E38" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F38" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2345,13 +2348,13 @@
         <v>148</v>
       </c>
       <c r="D39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E39" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F39" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2365,13 +2368,13 @@
         <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E40" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F40" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2385,13 +2388,13 @@
         <v>150</v>
       </c>
       <c r="D41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E41" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F41" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2408,10 +2411,10 @@
         <v>227</v>
       </c>
       <c r="E42" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F42" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2425,13 +2428,13 @@
         <v>152</v>
       </c>
       <c r="D43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E43" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F43" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2445,13 +2448,13 @@
         <v>153</v>
       </c>
       <c r="D44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E44" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F44" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2465,13 +2468,13 @@
         <v>154</v>
       </c>
       <c r="D45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E45" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F45" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2485,13 +2488,13 @@
         <v>155</v>
       </c>
       <c r="D46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E46" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2505,13 +2508,13 @@
         <v>156</v>
       </c>
       <c r="D47" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E47" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F47" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2524,11 +2527,14 @@
       <c r="C48" t="s">
         <v>157</v>
       </c>
+      <c r="D48" t="s">
+        <v>250</v>
+      </c>
       <c r="E48" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2545,10 +2551,10 @@
         <v>251</v>
       </c>
       <c r="E49" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2565,10 +2571,10 @@
         <v>252</v>
       </c>
       <c r="E50" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F50" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2585,10 +2591,10 @@
         <v>253</v>
       </c>
       <c r="E51" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F51" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2605,10 +2611,10 @@
         <v>227</v>
       </c>
       <c r="E52" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F52" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2625,10 +2631,10 @@
         <v>254</v>
       </c>
       <c r="E53" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F53" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2645,10 +2651,10 @@
         <v>255</v>
       </c>
       <c r="E54" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F54" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2665,10 +2671,10 @@
         <v>227</v>
       </c>
       <c r="E55" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F55" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2685,10 +2691,10 @@
         <v>256</v>
       </c>
       <c r="E56" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F56" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2702,13 +2708,13 @@
         <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E57" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F57" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2725,10 +2731,10 @@
         <v>257</v>
       </c>
       <c r="E58" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F58" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2741,11 +2747,14 @@
       <c r="C59" t="s">
         <v>168</v>
       </c>
+      <c r="D59" t="s">
+        <v>250</v>
+      </c>
       <c r="E59" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F59" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2762,10 +2771,10 @@
         <v>258</v>
       </c>
       <c r="E60" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F60" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2782,10 +2791,10 @@
         <v>227</v>
       </c>
       <c r="E61" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F61" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2802,10 +2811,10 @@
         <v>259</v>
       </c>
       <c r="E62" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F62" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2822,10 +2831,10 @@
         <v>260</v>
       </c>
       <c r="E63" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F63" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2842,10 +2851,10 @@
         <v>261</v>
       </c>
       <c r="E64" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F64" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2862,10 +2871,10 @@
         <v>227</v>
       </c>
       <c r="E65" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F65" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2882,10 +2891,10 @@
         <v>262</v>
       </c>
       <c r="E66" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F66" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2902,10 +2911,10 @@
         <v>263</v>
       </c>
       <c r="E67" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F67" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2922,10 +2931,10 @@
         <v>264</v>
       </c>
       <c r="E68" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F68" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2942,10 +2951,10 @@
         <v>265</v>
       </c>
       <c r="E69" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F69" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2962,10 +2971,10 @@
         <v>266</v>
       </c>
       <c r="E70" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F70" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2982,10 +2991,10 @@
         <v>267</v>
       </c>
       <c r="E71" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F71" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3002,10 +3011,10 @@
         <v>268</v>
       </c>
       <c r="E72" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F72" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3022,10 +3031,10 @@
         <v>269</v>
       </c>
       <c r="E73" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F73" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3042,10 +3051,10 @@
         <v>230</v>
       </c>
       <c r="E74" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F74" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3062,10 +3071,10 @@
         <v>270</v>
       </c>
       <c r="E75" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F75" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3082,10 +3091,10 @@
         <v>271</v>
       </c>
       <c r="E76" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F76" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3099,13 +3108,13 @@
         <v>186</v>
       </c>
       <c r="D77" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E77" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F77" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3122,10 +3131,10 @@
         <v>272</v>
       </c>
       <c r="E78" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F78" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3142,10 +3151,10 @@
         <v>221</v>
       </c>
       <c r="E79" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F79" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3162,10 +3171,10 @@
         <v>273</v>
       </c>
       <c r="E80" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F80" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3179,13 +3188,13 @@
         <v>190</v>
       </c>
       <c r="D81" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="E81" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F81" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3199,13 +3208,13 @@
         <v>191</v>
       </c>
       <c r="D82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E82" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F82" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3219,13 +3228,13 @@
         <v>192</v>
       </c>
       <c r="D83" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E83" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F83" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3242,10 +3251,10 @@
         <v>221</v>
       </c>
       <c r="E84" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F84" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3262,10 +3271,10 @@
         <v>227</v>
       </c>
       <c r="E85" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F85" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3279,13 +3288,13 @@
         <v>195</v>
       </c>
       <c r="D86" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="E86" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F86" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3299,13 +3308,13 @@
         <v>196</v>
       </c>
       <c r="D87" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="E87" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F87" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3319,13 +3328,13 @@
         <v>197</v>
       </c>
       <c r="D88" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E88" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F88" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3339,13 +3348,13 @@
         <v>198</v>
       </c>
       <c r="D89" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E89" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F89" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3359,13 +3368,13 @@
         <v>199</v>
       </c>
       <c r="D90" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E90" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F90" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3379,13 +3388,13 @@
         <v>200</v>
       </c>
       <c r="D91" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E91" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F91" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3399,13 +3408,13 @@
         <v>201</v>
       </c>
       <c r="D92" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E92" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F92" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3419,13 +3428,13 @@
         <v>202</v>
       </c>
       <c r="D93" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E93" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F93" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3439,13 +3448,13 @@
         <v>203</v>
       </c>
       <c r="D94" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E94" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F94" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3459,13 +3468,13 @@
         <v>204</v>
       </c>
       <c r="D95" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E95" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F95" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3479,13 +3488,13 @@
         <v>205</v>
       </c>
       <c r="D96" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E96" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F96" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3499,13 +3508,13 @@
         <v>206</v>
       </c>
       <c r="D97" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E97" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F97" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3519,13 +3528,13 @@
         <v>207</v>
       </c>
       <c r="D98" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E98" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F98" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3542,10 +3551,10 @@
         <v>255</v>
       </c>
       <c r="E99" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F99" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3559,13 +3568,13 @@
         <v>209</v>
       </c>
       <c r="D100" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E100" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F100" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3579,13 +3588,13 @@
         <v>210</v>
       </c>
       <c r="D101" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E101" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F101" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3599,13 +3608,13 @@
         <v>211</v>
       </c>
       <c r="D102" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E102" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F102" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3622,10 +3631,10 @@
         <v>227</v>
       </c>
       <c r="E103" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F103" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3639,13 +3648,13 @@
         <v>213</v>
       </c>
       <c r="D104" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E104" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F104" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3659,13 +3668,13 @@
         <v>214</v>
       </c>
       <c r="D105" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E105" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F105" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3682,10 +3691,10 @@
         <v>221</v>
       </c>
       <c r="E106" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F106" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3699,13 +3708,13 @@
         <v>216</v>
       </c>
       <c r="D107" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E107" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F107" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
